--- a/data/trans_dic/P24_5_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P24_5_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dolores de cabeza con bastante o mucha frecuencia</t>
+          <t>Población con dolores de cabeza con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>16,12%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,69%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>12,18%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,01%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>14,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>12,7%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>10,34%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>13,38%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>14,64%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>18,97%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,38; 11,08</t>
+          <t>3,59; 14,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,12; 13,62</t>
+          <t>1,58; 9,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 12,44</t>
+          <t>5,21; 12,7</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,49; 10,88</t>
+          <t>4,2; 10,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,0; 21,0</t>
+          <t>4,59; 15,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,61; 19,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,01; 22,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>14,89; 23,0</t>
+          <t>11,2; 24,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,32; 23,56</t>
+          <t>10,0; 21,97</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>22,28; 33,14</t>
+          <t>13,57; 22,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9,69; 14,89</t>
+          <t>17,22; 25,48</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,92; 16,68</t>
+          <t>19,35; 33,76</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>11,33; 16,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>11,43; 17,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>19,14; 26,63</t>
+          <t>8,42; 17,61</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>6,92; 14,47</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>10,59; 16,64</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>12,06; 17,31</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 24,53</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,34%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,62%</t>
+          <t>20,32%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>32,17%</t>
+          <t>22,86%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14,96%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,89%</t>
+          <t>26,05%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>16,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>21,12%</t>
+          <t>14,97%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>13,99%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>16,17%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>16,18%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>16,55%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 13,62</t>
+          <t>3,53; 17,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,47</t>
+          <t>4,8; 10,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,21; 11,9</t>
+          <t>6,7; 13,25</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,51; 11,11</t>
+          <t>6,3; 10,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,75; 15,23</t>
+          <t>4,41; 10,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,46; 23,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,03; 23,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,72; 24,9</t>
+          <t>17,13; 28,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,24; 28,65</t>
+          <t>16,21; 25,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,84; 36,66</t>
+          <t>19,44; 26,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,11; 17,23</t>
+          <t>21,14; 28,49</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,79; 15,21</t>
+          <t>21,74; 30,78</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>13,4; 17,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>14,03; 18,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>18,51; 23,91</t>
+          <t>11,75; 19,46</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>11,28; 17,05</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>13,91; 18,77</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>14,17; 18,5</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>14,05; 19,51</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,23%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>8,32%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,38%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>23,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>19,89%</t>
+          <t>17,69%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>21,57%</t>
+          <t>22,47%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>19,78%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,12%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>17,31%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>13,44%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>15,78%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
           <t>13,47%</t>
         </is>
       </c>
-      <c r="Q8" s="2" t="inlineStr">
-        <is>
-          <t>16,29%</t>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1103,84 +1302,114 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 12,08</t>
+          <t>6,02; 14,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 11,58</t>
+          <t>5,62; 15,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 11,95</t>
+          <t>5,58; 11,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,6; 9,27</t>
+          <t>4,65; 9,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 16,11</t>
+          <t>4,66; 11,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,71; 25,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,28; 20,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,19; 26,03</t>
+          <t>18,95; 29,9</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,65; 23,49</t>
+          <t>13,64; 22,71</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,8; 26,83</t>
+          <t>18,84; 26,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,33; 17,45</t>
+          <t>16,63; 23,15</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>9,74; 14,75</t>
+          <t>13,45; 21,35</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>13,3; 18,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>11,65; 15,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>13,29; 20,04</t>
+          <t>13,9; 21,12</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>10,53; 16,92</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>13,55; 18,69</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>11,5; 15,67</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>10,17; 15,71</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>12,84%</t>
+          <t>8,9%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>19,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>18,06%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>21,81%</t>
+          <t>18,08%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>28,15%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>15,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>20,51%</t>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>12,17%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>15,06%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>14,53%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,2313 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,13; 11,13</t>
+          <t>7,21; 11,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,72; 9,11</t>
+          <t>4,38; 9,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 10,72</t>
+          <t>7,26; 14,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,22; 9,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,83; 15,49</t>
+          <t>5,97; 13,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,52; 21,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,86; 20,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>19,12; 23,25</t>
+          <t>15,83; 20,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>19,71; 24,13</t>
+          <t>15,19; 21,76</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,34; 31,29</t>
+          <t>16,3; 25,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,15; 15,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,18; 14,29</t>
+          <t>16,83; 25,29</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>13,82; 16,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>13,54; 16,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>18,68; 22,47</t>
+          <t>11,91; 15,23</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>10,29; 14,36</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>12,31; 18,08</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>12,0; 17,67</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8,84%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,98%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,15%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,49%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,93%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>18,27%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>21,31%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>22,14%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22,36%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>14,31%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>12,74%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>15,35%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>14,95%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>15,32%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7,23; 10,98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 8,79</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7,69; 11,01</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>6,12; 9,17</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,3; 10,06</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>17,53; 21,53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>16,32; 20,53</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19,25; 23,3</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>20,04; 24,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>20,24; 24,99</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>13,11; 15,91</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>11,5; 14,16</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>14,13; 16,68</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>13,58; 16,3</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>13,78; 17,08</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolores de cabeza con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17820</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15171</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>42979</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>49107</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>38746</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>44184</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>63477</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>112753</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>188393</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>166780</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>62004</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>78648</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>155732</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>237499</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>205527</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8132; 33269</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5363; 31260</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>27520; 67047</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>30533; 74758</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20256; 68205</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29308; 64763</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>42185; 92660</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>86278; 142514</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>154247; 228311</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>124231; 216757</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>41092; 85960</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>52623; 110141</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>123204; 193689</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>195648; 280805</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>153568; 265841</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>132.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>172.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>49821</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>67116</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>112318</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>135304</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>73395</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>154705</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>203181</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>281659</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>371107</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>282208</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>204527</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>270297</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>393978</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>506412</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>355603</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22958; 115983</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>44717; 99452</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>80687; 159552</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>102151; 174391</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>46974; 108620</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>122481; 201645</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>162127; 253058</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>239436; 327814</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>318742; 429580</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>235578; 333517</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>160559; 265881</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>217978; 329472</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>338799; 457220</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>443547; 578964</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>301844; 419005</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>148.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>43873</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>63516</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>70365</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>73084</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>62513</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>127079</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>136069</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>211614</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>230126</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>152516</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>170952</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>199585</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>281978</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>303210</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>215029</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>27423; 65589</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>40217; 108947</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>47175; 98011</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>50585; 99645</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>38726; 97996</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>100778; 159001</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>104935; 174668</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>177440; 253413</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>193422; 269268</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>120347; 191109</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>137274; 208510</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>156377; 251213</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>242240; 333991</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>258802; 352657</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>175563; 271162</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>193387</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>94597</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>87842</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>97344</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>377436</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>253297</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>154054</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>204692</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>570822</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>347894</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>241895</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>302037</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>152469; 251046</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>63809; 134484</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>61598; 125573</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>65290; 144843</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>330733; 433793</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>212793; 304760</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>123399; 190185</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>165676; 248995</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>500550; 640115</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>294097; 410522</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>197747; 290339</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>249450; 367338</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>111.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>368.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>418.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>328.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>478.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>479.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>304901</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>240400</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>313504</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>257495</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>271999</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>703405</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>656024</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>760080</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>789626</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>806197</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1008305</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>896424</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>1073583</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>1047122</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>1078196</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>249175; 378610</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>190072; 302740</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>263698; 377403</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>210196; 315219</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>216267; 345280</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>630597; 774667</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>586186; 737481</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>686508; 831081</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>714701; 871336</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>729545; 901022</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>923846; 1120783</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>809004; 996009</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>988008; 1166381</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>951016; 1141391</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>969501; 1202104</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
